--- a/Biostar_Catalogue/output_files/CAT1/text_files/tres_estrelas_da_borda.xlsx
+++ b/Biostar_Catalogue/output_files/CAT1/text_files/tres_estrelas_da_borda.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">designation</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">simbad_HD</t>
   </si>
   <si>
+    <t xml:space="preserve">simbad_HIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">parallax</t>
   </si>
   <si>
@@ -76,13 +79,22 @@
     <t xml:space="preserve">HD 112758</t>
   </si>
   <si>
+    <t xml:space="preserve">HIP 63366</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gaia DR3 670216834655936128</t>
   </si>
   <si>
     <t xml:space="preserve">HD 64468</t>
   </si>
   <si>
+    <t xml:space="preserve">HIP 38657</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gaia DR3 1429437378934511616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIP 79796</t>
   </si>
 </sst>
 </file>
@@ -158,9 +170,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -355,224 +371,238 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>49.8263324938709</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.3896293</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>7.3262544</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>7.7394137</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>6.734437</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>5.81354900881419</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.0169807103683115</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>6.22670830881419</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>0.0169807103683115</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>5.22173160881419</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>0.0169807103683115</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>1.0049767</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>0.5918174</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="1" t="n">
         <v>0.41315937</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>49.2442896198494</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.2877948</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>7.472892</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>7.968472</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>6.816317</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>5.93467138428254</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>0.0126907218622572</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>6.43025138428254</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>0.0126907218622572</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>5.27809638428254</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>0.0126907218622572</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <v>1.1521549</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="1" t="n">
         <v>0.6565747</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="1" t="n">
         <v>0.4955802</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>49.630263446307</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.4244921</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>9.078422</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>10.184421</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>8.014929</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>7.55715490258079</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.0185732514341641</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>8.66315390258079</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>0.0185732514341641</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>6.49366190258079</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>0.0185732514341641</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <v>2.1694918</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <v>1.0634928</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="1" t="n">
         <v>1.105999</v>
       </c>
     </row>
